--- a/biology/Botanique/Maripa_scandens/Maripa_scandens.xlsx
+++ b/biology/Botanique/Maripa_scandens/Maripa_scandens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maripa scandens est une espèce de plantes de la famille des Convolvulaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Maripa scandens a pour synonymes selon World Checklist of Selected Plant Families (WCSP)                (21 février 2021)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Maripa scandens a pour synonymes selon World Checklist of Selected Plant Families (WCSP)                (21 février 2021) :
 synonyme homotypique :
 Mouroucoa scandens (Aubl.) Kuntze, 1891
 synonyme hétérotypique :
@@ -554,9 +568,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (21 février 2021)[2] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (21 février 2021) (Attention liste brute contenant possiblement des synonymes) :
 variété Maripa scandens var. albicans Ducke
 variété Maripa scandens var. argentea Benoist
 variété Maripa scandens var. cordata Meisn.</t>
@@ -587,9 +603,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante[1] : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante : 
 « Maripa (scandens). (Tabula 91.)
 Frutex sarmentosus ; sarmentis longissimis, suprà arbores scandentibus, ramulis propendentibus. Capreolus spiraliter intortus, lignosus, in ramusculis, infra folia, observatur. Folia alterna, ovata, acuta, glabra, integerrima, petiolata. Flores paniculati, terminales ; pediculi ramorum ex axillari squamula prodeunt. Calix cinereus. Corolla alba.
 Habitat ad ripam fluvii Sinemari.
